--- a/Laktat_Testprotokoll.xlsx
+++ b/Laktat_Testprotokoll.xlsx
@@ -4,15 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="-20000" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="-6440" yWindow="-21580" windowWidth="25360" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="6-7-8-9-10-11-12 kmh" sheetId="1" r:id="rId1"/>
-    <sheet name="6.5-8-9.5-11-12.5-14 kmh" sheetId="2" r:id="rId2"/>
+    <sheet name="6.5-8-9.5-11-12.5-14 kmh" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="KnownV" localSheetId="1">'6.5-8-9.5-11-12.5-14 kmh'!$B$10:$B$15</definedName>
+    <definedName name="KnownV">'6-7-8-9-10-11-12 kmh'!$B$10:$B$16</definedName>
+    <definedName name="KnownX" localSheetId="1">'6.5-8-9.5-11-12.5-14 kmh'!$C$10:$C$15</definedName>
+    <definedName name="KnownX">'6-7-8-9-10-11-12 kmh'!$C$10:$C$16</definedName>
+    <definedName name="KnownY" localSheetId="1">'6.5-8-9.5-11-12.5-14 kmh'!$D$10:$D$15</definedName>
+    <definedName name="KnownY">'6-7-8-9-10-11-12 kmh'!$D$10:$D$16</definedName>
+    <definedName name="NewX" localSheetId="1">'6.5-8-9.5-11-12.5-14 kmh'!$B$39</definedName>
+    <definedName name="NewX">'6-7-8-9-10-11-12 kmh'!$B$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'6-7-8-9-10-11-12 kmh'!$A$1:$D$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'6.5-8-9.5-11-12.5-14 kmh'!$A$1:$D$47</definedName>
+    <definedName name="X" localSheetId="1">'6.5-8-9.5-11-12.5-14 kmh'!$B$39</definedName>
+    <definedName name="X">'6-7-8-9-10-11-12 kmh'!$B$40</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -489,16 +499,16 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="&quot;&lt; &quot;0"/>
-    <numFmt numFmtId="175" formatCode="&quot;&lt; &quot;0.0"/>
+    <numFmt numFmtId="165" formatCode="&quot;&lt; &quot;0"/>
+    <numFmt numFmtId="166" formatCode="&quot;&lt; &quot;0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,12 +568,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -610,7 +614,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -666,16 +670,119 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -705,17 +812,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -728,41 +829,48 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="161">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -790,6 +898,59 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -817,9 +978,151 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
@@ -929,7 +1232,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -977,7 +1280,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1007,8 +1310,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2111498696"/>
-        <c:axId val="-2126705352"/>
+        <c:axId val="2046946456"/>
+        <c:axId val="2046949912"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1094,13 +1397,13 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,7 +1421,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1148,13 +1451,13 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1172,7 +1475,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1187,11 +1490,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2111652024"/>
-        <c:axId val="-2129761576"/>
+        <c:axId val="2046943272"/>
+        <c:axId val="2046952888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2111498696"/>
+        <c:axId val="2046946456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.3"/>
@@ -1213,12 +1516,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126705352"/>
+        <c:crossAx val="2046949912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126705352"/>
+        <c:axId val="2046949912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9.0"/>
@@ -1241,12 +1544,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111498696"/>
+        <c:crossAx val="2046946456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2129761576"/>
+        <c:axId val="2046952888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="225.0"/>
@@ -1268,13 +1571,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111652024"/>
+        <c:crossAx val="2046943272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2111652024"/>
+        <c:axId val="2046943272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,7 +1587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129761576"/>
+        <c:crossAx val="2046952888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1426,7 +1729,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1474,7 +1777,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1504,8 +1807,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2113133080"/>
-        <c:axId val="-2139752216"/>
+        <c:axId val="-2146635560"/>
+        <c:axId val="2130391000"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1588,13 +1891,13 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1612,7 +1915,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1642,13 +1945,13 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1666,7 +1969,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1681,11 +1984,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2122798040"/>
-        <c:axId val="-2140167928"/>
+        <c:axId val="2129993192"/>
+        <c:axId val="-2146892552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2113133080"/>
+        <c:axId val="-2146635560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.9"/>
@@ -1693,7 +1996,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1707,12 +2010,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2139752216"/>
+        <c:crossAx val="2130391000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2139752216"/>
+        <c:axId val="2130391000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9.0"/>
@@ -1735,12 +2038,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2113133080"/>
+        <c:crossAx val="-2146635560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2140167928"/>
+        <c:axId val="-2146892552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="225.0"/>
@@ -1762,14 +2065,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122798040"/>
+        <c:crossAx val="2129993192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25.0"/>
-        <c:minorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2122798040"/>
+        <c:axId val="2129993192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1779,7 +2081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140167928"/>
+        <c:crossAx val="-2146892552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1905,13 +2207,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1935,19 +2237,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:colOff>838200</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="static_qr_code_without_logo.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="static_qr_code_without_logo.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1966,7 +2268,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6756400" y="11404600"/>
+          <a:off x="6781800" y="11722100"/>
           <a:ext cx="1295400" cy="1295400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2306,7 +2608,7 @@
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2322,479 +2624,500 @@
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="19">
+      <c r="A10" s="16">
         <f>1200/B10/86400</f>
         <v>8.333333333333335E-3</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f>6/3.6</f>
         <v>1.6666666666666665</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="19">
+      <c r="A11" s="16">
         <f t="shared" ref="A11:A16" si="0">1200/B11/86400</f>
         <v>7.1428571428571426E-3</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f>7/3.6</f>
         <v>1.9444444444444444</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="19">
+      <c r="A12" s="16">
         <f t="shared" si="0"/>
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <f>8/3.6</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:4" ht="21" customHeight="1">
-      <c r="A13" s="19">
+      <c r="A13" s="16">
         <f t="shared" si="0"/>
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <f>9/3.6</f>
         <v>2.5</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4" ht="21" customHeight="1">
-      <c r="A14" s="19">
+      <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <f>10/3.6</f>
         <v>2.7777777777777777</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4" ht="21" customHeight="1">
-      <c r="A15" s="19">
+      <c r="A15" s="16">
         <f t="shared" si="0"/>
         <v>4.5454545454545461E-3</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <f>11/3.6</f>
         <v>3.0555555555555554</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:4" ht="21" customHeight="1">
-      <c r="A16" s="19">
+      <c r="A16" s="16">
         <f t="shared" si="0"/>
         <v>4.1666666666666675E-3</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f>12/3.6</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="16"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4" ht="21" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" ht="21" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="21" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" ht="21" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" ht="21" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="21" customHeight="1">
-      <c r="A22" s="17">
+      <c r="A22" s="14">
         <v>0</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="14">
         <f>B39</f>
         <v>2</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" ht="21" customHeight="1">
-      <c r="A23" s="17" t="e">
-        <f>D39</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B23" s="17">
+      <c r="A23" s="14" t="e">
+        <f ca="1">D39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B23" s="14">
         <f>B39</f>
         <v>2</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" ht="21" customHeight="1">
-      <c r="A24" s="17" t="e">
-        <f>D39</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B24" s="17">
+      <c r="A24" s="14" t="e">
+        <f ca="1">D39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B24" s="14">
         <v>0</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="21" customHeight="1">
-      <c r="A25" s="17" t="e">
-        <f>D39</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B25" s="18" t="e">
-        <f>C39</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="A25" s="14" t="e">
+        <f ca="1">D39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B25" s="15" t="e">
+        <f ca="1">C39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" ht="21" customHeight="1">
       <c r="A26">
         <v>0</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="14">
         <f>B40</f>
         <v>4</v>
       </c>
-      <c r="C26" s="22" t="e">
-        <f>INDEX($D$10:$D$16+(1.5-$C$10:$C$16)*($D$11:$D$17-$D$10:$D$16)/($C$11:$C$17-$C$10:$C$16),MATCH(1.5,$C$10:$C$16,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D26" s="22" t="e">
-        <f>INDEX($B$10:$B$16+(1.5-$C$10:$C$16)*($B$11:$B$17-$B$10:$B$16)/($C$11:$C$17-$C$10:$C$16),MATCH(1.5,$C$10:$C$16,1))</f>
-        <v>#N/A</v>
+      <c r="C26" s="25" t="e">
+        <f ca="1">FORECAST(1.5,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="26" t="e">
+        <f ca="1">FORECAST(1.5,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21" customHeight="1">
-      <c r="A27" s="17" t="e">
-        <f>D40</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B27" s="17">
+      <c r="A27" s="14" t="e">
+        <f ca="1">D40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B27" s="14">
         <f>B40</f>
         <v>4</v>
       </c>
-      <c r="C27" s="22" t="e">
-        <f>INDEX($D$10:$D$16+(2.5-$C$10:$C$16)*($D$11:$D$17-$D$10:$D$16)/($C$11:$C$17-$C$10:$C$16),MATCH(2.5,$C$10:$C$16,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D27" s="22" t="e">
-        <f>INDEX($B$10:$B$16+(2.5-$C$10:$C$16)*($B$11:$B$17-$B$10:$B$16)/($C$11:$C$17-$C$10:$C$16),MATCH(2.5,$C$10:$C$16,1))</f>
-        <v>#N/A</v>
+      <c r="C27" s="25" t="e">
+        <f ca="1">FORECAST(2.5,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="26" t="e">
+        <f ca="1">FORECAST(2.5,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21" customHeight="1">
-      <c r="A28" s="17" t="e">
-        <f>D40</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B28" s="17">
+      <c r="A28" s="14" t="e">
+        <f ca="1">D40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B28" s="14">
         <v>0</v>
       </c>
-      <c r="C28" s="22" t="e">
-        <f>INDEX($D$10:$D$16+(3-$C$10:$C$16)*($D$11:$D$17-$D$10:$D$16)/($C$11:$C$17-$C$10:$C$16),MATCH(3,$C$10:$C$16,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D28" s="22" t="e">
-        <f>INDEX($B$10:$B$16+(3-$C$10:$C$16)*($B$11:$B$17-$B$10:$B$16)/($C$11:$C$17-$C$10:$C$16),MATCH(3,$C$10:$C$16,1))</f>
-        <v>#N/A</v>
+      <c r="C28" s="25" t="e">
+        <f ca="1">FORECAST(3,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="26" t="e">
+        <f ca="1">FORECAST(3,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21" customHeight="1">
-      <c r="A29" s="17" t="e">
-        <f>D40</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B29" s="17" t="e">
-        <f>C40</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C29" s="22" t="e">
-        <f>INDEX($D$10:$D$16+(6-$C$10:$C$16)*($D$11:$D$17-$D$10:$D$16)/($C$11:$C$17-$C$10:$C$16),MATCH(6,$C$10:$C$16,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D29" s="22" t="e">
-        <f>INDEX($B$10:$B$16+(6-$C$10:$C$16)*($B$11:$B$17-$B$10:$B$16)/($C$11:$C$17-$C$10:$C$16),MATCH(6,$C$10:$C$16,1))</f>
-        <v>#N/A</v>
+      <c r="A29" s="14" t="e">
+        <f ca="1">D40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B29" s="14" t="e">
+        <f ca="1">C40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C29" s="25" t="e">
+        <f ca="1">FORECAST(6,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="26" t="e">
+        <f ca="1">FORECAST(6,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" ht="21" customHeight="1">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" ht="21" customHeight="1">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="21" customHeight="1">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="24" t="e">
-        <f>"&lt; "&amp;TEXT(C26,"0")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D33" s="25" t="e">
-        <f>"&lt; "&amp;TEXT(D26,"0,0")</f>
-        <v>#N/A</v>
+      <c r="C33" s="19" t="str">
+        <f ca="1">"&lt; "&amp;IFERROR(TEXT(C26,"0"),"?")</f>
+        <v>&lt; ?</v>
+      </c>
+      <c r="D33" s="20" t="str">
+        <f ca="1">"&lt; "&amp;IFERROR(TEXT(D26,"0,0"),"?")</f>
+        <v>&lt; ?</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="21" customHeight="1">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="24" t="e">
-        <f>TEXT(C26,"0")&amp;" - "&amp;TEXT(C27,"0")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D34" s="24" t="e">
-        <f>TEXT(D26,"0,0")&amp;" - "&amp;TEXT(D27,"0,0")</f>
-        <v>#N/A</v>
+      <c r="C34" s="19" t="str">
+        <f ca="1">IFERROR(TEXT(C26,"0"),"?")&amp;" - "&amp;IFERROR(TEXT(C27,"0"),"?")</f>
+        <v>? - ?</v>
+      </c>
+      <c r="D34" s="19" t="str">
+        <f ca="1">IFERROR(TEXT(D26,"0,0"),"?")&amp;" - "&amp;IFERROR(TEXT(D27,"0,0"),"?")</f>
+        <v>? - ?</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="21" customHeight="1">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="24" t="e">
-        <f>TEXT(C27,"0")&amp;" - "&amp;TEXT(C28,"0")&amp;"/"&amp;TEXT(C29,"0")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D35" s="24" t="e">
-        <f>TEXT(D27,"0,0")&amp;" - "&amp;TEXT(D28,"0,0")&amp;"/"&amp;TEXT(D29,"0,0")</f>
-        <v>#N/A</v>
+      <c r="C35" s="19" t="str">
+        <f ca="1">IFERROR(TEXT(C27,"0"),"?")&amp;" - "&amp;IFERROR(TEXT(C28,"0"),"?")&amp;"/"&amp;IFERROR(TEXT(C29,"0"),"?")</f>
+        <v>? - ?/?</v>
+      </c>
+      <c r="D35" s="19" t="str">
+        <f ca="1">IFERROR(TEXT(D27,"0,0"),"?")&amp;" - "&amp;IFERROR(TEXT(D28,"0,0"),"?")&amp;"/"&amp;IFERROR(TEXT(D29,"0,0"),"?")</f>
+        <v>? - ?/?</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="21" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:12" ht="21" customHeight="1">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="21" customHeight="1">
-      <c r="A38" s="6"/>
-      <c r="B38" s="12" t="s">
+      <c r="A38" s="5"/>
+      <c r="B38" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="21" customHeight="1">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>2</v>
       </c>
-      <c r="C39" s="30" t="e">
-        <f>INDEX($D$10:$D$16+(2-$C$10:$C$16)*($D$11:$D$17-$D$10:$D$16)/($C$11:$C$17-$C$10:$C$16),MATCH(2,$C$10:$C$16,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D39" s="31" t="e">
-        <f>INDEX($B$10:$B$16+(2-$C$10:$C$16)*($B$11:$B$17-$B$10:$B$16)/($C$11:$C$17-$C$10:$C$16),MATCH(2,$C$10:$C$16,1))</f>
-        <v>#N/A</v>
+      <c r="C39" s="21" t="e">
+        <f ca="1">FORECAST(2,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D39" s="24" t="e">
+        <f ca="1">FORECAST(2,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="21" customHeight="1">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>4</v>
       </c>
-      <c r="C40" s="32" t="e">
-        <f>INDEX($D$10:$D$16+(4-$C$10:$C$16)*($D$11:$D$17-$D$10:$D$16)/($C$11:$C$17-$C$10:$C$16),MATCH(4,$C$10:$C$16,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D40" s="31" t="e">
-        <f>INDEX($B$10:$B$16+(4-$C$10:$C$16)*($B$11:$B$17-$B$10:$B$16)/($C$11:$C$17-$C$10:$C$16),MATCH(4,$C$10:$C$16,1))</f>
-        <v>#N/A</v>
+      <c r="C40" s="21" t="e">
+        <f ca="1">FORECAST(4,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D40" s="24" t="e">
+        <f ca="1">FORECAST(4,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="24" customHeight="1"/>
     <row r="42" spans="1:12" ht="56" customHeight="1">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
     </row>
     <row r="43" spans="1:12" ht="24" customHeight="1"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A42:D42"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="containsErrors" dxfId="3" priority="4">
+      <formula>ISERROR(C39)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="containsErrors" dxfId="2" priority="3">
+      <formula>ISERROR(C40)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsErrors" dxfId="1" priority="2">
+      <formula>ISERROR(D39)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="containsErrors" dxfId="0" priority="1">
+      <formula>ISERROR(D40)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39000000000000007" right="0.39000000000000007" top="0.39000000000000007" bottom="0.39000000000000007" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2814,7 +3137,7 @@
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2830,468 +3153,490 @@
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="19">
+      <c r="A10" s="16">
         <f>1200/B10/86400</f>
         <v>7.6923076923076927E-3</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f>6.5/3.6</f>
         <v>1.8055555555555556</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="19">
-        <f>1200/B11/86400</f>
+      <c r="A11" s="16">
+        <f t="shared" ref="A11:A15" si="0">1200/B11/86400</f>
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f>8/3.6</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="19">
-        <f t="shared" ref="A12:A15" si="0">1200/B12/86400</f>
+      <c r="A12" s="16">
+        <f t="shared" si="0"/>
         <v>5.263157894736842E-3</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <f>9.5/3.6</f>
         <v>2.6388888888888888</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:4" ht="21" customHeight="1">
-      <c r="A13" s="19">
+      <c r="A13" s="16">
         <f t="shared" si="0"/>
         <v>4.5454545454545461E-3</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <f>11/3.6</f>
         <v>3.0555555555555554</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4" ht="21" customHeight="1">
-      <c r="A14" s="19">
+      <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>3.9999999999999992E-3</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <f>12.5/3.6</f>
         <v>3.4722222222222223</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4" ht="21" customHeight="1">
-      <c r="A15" s="19">
+      <c r="A15" s="16">
         <f t="shared" si="0"/>
         <v>3.5714285714285713E-3</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <f>14/3.6</f>
         <v>3.8888888888888888</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:4" ht="21" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" ht="21" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" ht="21" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="21" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" ht="21" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" ht="21" customHeight="1">
-      <c r="A21" s="17">
+      <c r="A21" s="14">
         <v>0</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="14">
         <f>B38</f>
         <v>2</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="21" customHeight="1">
-      <c r="A22" s="17" t="e">
-        <f>D38</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B22" s="17">
+      <c r="A22" s="14" t="e">
+        <f ca="1">D38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B22" s="14">
         <f>B38</f>
         <v>2</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" ht="21" customHeight="1">
-      <c r="A23" s="17" t="e">
-        <f>D38</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B23" s="17">
+      <c r="A23" s="14" t="e">
+        <f ca="1">D38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B23" s="14">
         <v>0</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" ht="21" customHeight="1">
-      <c r="A24" s="17" t="e">
-        <f>D38</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B24" s="18" t="e">
-        <f>C38</f>
-        <v>#N/A</v>
-      </c>
+      <c r="A24" s="14" t="e">
+        <f ca="1">D38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B24" s="15" t="e">
+        <f ca="1">C38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="21" customHeight="1">
       <c r="A25">
         <v>0</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="14">
         <f>B39</f>
         <v>4</v>
       </c>
-      <c r="C25" s="10" t="e">
-        <f>INDEX($D$10:$D$15+(1.5-$C$10:$C$15)*($D$11:$D$16-$D$10:$D$15)/($C$11:$C$16-$C$10:$C$15),MATCH(1.5,$C$10:$C$15,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D25" s="10" t="e">
-        <f>INDEX($B$10:$B$15+(1.5-$C$10:$C$15)*($B$11:$B$16-$B$10:$B$15)/($C$11:$C$16-$C$10:$C$15),MATCH(1.5,$C$10:$C$15,1))</f>
-        <v>#N/A</v>
+      <c r="C25" s="25" t="e">
+        <f ca="1">FORECAST(1.5,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="26" t="e">
+        <f ca="1">FORECAST(1.5,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21" customHeight="1">
-      <c r="A26" s="17" t="e">
-        <f>D39</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B26" s="17">
+      <c r="A26" s="14" t="e">
+        <f ca="1">D39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B26" s="14">
         <f>B39</f>
         <v>4</v>
       </c>
-      <c r="C26" s="10" t="e">
-        <f>INDEX($D$10:$D$15+(2.5-$C$10:$C$15)*($D$11:$D$16-$D$10:$D$15)/($C$11:$C$16-$C$10:$C$15),MATCH(2.5,$C$10:$C$15,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D26" s="10" t="e">
-        <f>INDEX($B$10:$B$15+(2.5-$C$10:$C$15)*($B$11:$B$16-$B$10:$B$15)/($C$11:$C$16-$C$10:$C$15),MATCH(2.5,$C$10:$C$15,1))</f>
-        <v>#N/A</v>
+      <c r="C26" s="25" t="e">
+        <f ca="1">FORECAST(2.5,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="26" t="e">
+        <f ca="1">FORECAST(2.5,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21" customHeight="1">
-      <c r="A27" s="17" t="e">
-        <f>D39</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B27" s="17">
+      <c r="A27" s="14" t="e">
+        <f ca="1">D39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B27" s="14">
         <v>0</v>
       </c>
-      <c r="C27" s="10" t="e">
-        <f>INDEX($D$10:$D$15+(3-$C$10:$C$15)*($D$11:$D$16-$D$10:$D$15)/($C$11:$C$16-$C$10:$C$15),MATCH(3,$C$10:$C$15,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D27" s="10" t="e">
-        <f>INDEX($B$10:$B$15+(3-$C$10:$C$15)*($B$11:$B$16-$B$10:$B$15)/($C$11:$C$16-$C$10:$C$15),MATCH(3,$C$10:$C$15,1))</f>
-        <v>#N/A</v>
+      <c r="C27" s="25" t="e">
+        <f ca="1">FORECAST(3,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="26" t="e">
+        <f ca="1">FORECAST(3,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21" customHeight="1">
-      <c r="A28" s="17" t="e">
-        <f>D39</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B28" s="17" t="e">
-        <f>C39</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C28" s="10" t="e">
-        <f>INDEX($D$10:$D$15+(6-$C$10:$C$15)*($D$11:$D$16-$D$10:$D$15)/($C$11:$C$16-$C$10:$C$15),MATCH(6,$C$10:$C$15,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D28" s="10" t="e">
-        <f>INDEX($B$10:$B$15+(6-$C$10:$C$15)*($B$11:$B$16-$B$10:$B$15)/($C$11:$C$16-$C$10:$C$15),MATCH(6,$C$10:$C$15,1))</f>
-        <v>#N/A</v>
+      <c r="A28" s="14" t="e">
+        <f ca="1">D39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B28" s="14" t="e">
+        <f ca="1">C39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C28" s="25" t="e">
+        <f ca="1">FORECAST(6,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="26" t="e">
+        <f ca="1">FORECAST(6,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" ht="21" customHeight="1">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" ht="21" customHeight="1">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21" customHeight="1">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="28" t="e">
-        <f>"&lt; "&amp;TEXT(C25,"0")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D32" s="28" t="e">
-        <f>"&lt; "&amp;TEXT(D25,"0,0")</f>
-        <v>#N/A</v>
+      <c r="C32" s="19" t="str">
+        <f ca="1">"&lt; "&amp;IFERROR(TEXT(C25,"0"),"?")</f>
+        <v>&lt; ?</v>
+      </c>
+      <c r="D32" s="20" t="str">
+        <f ca="1">"&lt; "&amp;IFERROR(TEXT(D25,"0,0"),"?")</f>
+        <v>&lt; ?</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="21" customHeight="1">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="28" t="e">
-        <f>TEXT(C25,"0")&amp;" - "&amp;TEXT(C26,"0")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D33" s="28" t="e">
-        <f>TEXT(D25,"0,0")&amp;" - "&amp;TEXT(D26,"0,0")</f>
-        <v>#N/A</v>
+      <c r="C33" s="19" t="str">
+        <f ca="1">IFERROR(TEXT(C25,"0"),"?")&amp;" - "&amp;IFERROR(TEXT(C26,"0"),"?")</f>
+        <v>? - ?</v>
+      </c>
+      <c r="D33" s="19" t="str">
+        <f ca="1">IFERROR(TEXT(D25,"0,0"),"?")&amp;" - "&amp;IFERROR(TEXT(D26,"0,0"),"?")</f>
+        <v>? - ?</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="21" customHeight="1">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="28" t="e">
-        <f>TEXT(C26,"0")&amp;" - "&amp;TEXT(C27,"0")&amp;"/"&amp;TEXT(C28,"0")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D34" s="28" t="e">
-        <f>TEXT(D26,"0,0")&amp;" - "&amp;TEXT(D27,"0,0")&amp;"/"&amp;TEXT(D28,"0,0")</f>
-        <v>#N/A</v>
+      <c r="C34" s="19" t="str">
+        <f ca="1">IFERROR(TEXT(C26,"0"),"?")&amp;" - "&amp;IFERROR(TEXT(C27,"0"),"?")&amp;"/"&amp;IFERROR(TEXT(C28,"0"),"?")</f>
+        <v>? - ?/?</v>
+      </c>
+      <c r="D34" s="19" t="str">
+        <f ca="1">IFERROR(TEXT(D26,"0,0"),"?")&amp;" - "&amp;IFERROR(TEXT(D27,"0,0"),"?")&amp;"/"&amp;IFERROR(TEXT(D28,"0,0"),"?")</f>
+        <v>? - ?/?</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="21" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="21" customHeight="1">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:12" ht="21" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="5"/>
+      <c r="B37" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="21" customHeight="1">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>2</v>
       </c>
-      <c r="C38" s="26" t="e">
-        <f>INDEX($D$10:$D$15+(2-$C$10:$C$15)*($D$11:$D$16-$D$10:$D$15)/($C$11:$C$16-$C$10:$C$15),MATCH(2,$C$10:$C$15,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D38" s="23" t="e">
-        <f>INDEX($B$10:$B$15+(2-$C$10:$C$15)*($B$11:$B$16-$B$10:$B$15)/($C$11:$C$16-$C$10:$C$15),MATCH(2,$C$10:$C$15,1))</f>
-        <v>#N/A</v>
+      <c r="C38" s="21" t="e">
+        <f ca="1">FORECAST(2,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="24" t="e">
+        <f ca="1">FORECAST(2,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="21" customHeight="1">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>4</v>
       </c>
-      <c r="C39" s="27" t="e">
-        <f>INDEX($D$10:$D$15+(4-$C$10:$C$15)*($D$11:$D$16-$D$10:$D$15)/($C$11:$C$16-$C$10:$C$15),MATCH(4,$C$10:$C$15,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D39" s="23" t="e">
-        <f>INDEX($B$10:$B$15+(4-$C$10:$C$15)*($B$11:$B$16-$B$10:$B$15)/($C$11:$C$16-$C$10:$C$15),MATCH(4,$C$10:$C$15,1))</f>
-        <v>#N/A</v>
+      <c r="C39" s="21" t="e">
+        <f ca="1">FORECAST(4,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D39" s="24" t="e">
+        <f ca="1">FORECAST(4,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="24" customHeight="1"/>
-    <row r="41" spans="1:12" ht="54" customHeight="1">
-      <c r="A41" s="21" t="s">
+    <row r="41" spans="1:12" ht="56" customHeight="1">
+      <c r="A41" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
     </row>
     <row r="42" spans="1:12" ht="24" customHeight="1"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A41:D41"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="containsErrors" dxfId="7" priority="5">
+      <formula>ISERROR(C38)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="containsErrors" dxfId="6" priority="3">
+      <formula>ISERROR(C39)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsErrors" dxfId="5" priority="2">
+      <formula>ISERROR(D38)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsErrors" dxfId="4" priority="1">
+      <formula>ISERROR(D39)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39000000000000007" right="0.39000000000000007" top="0.39000000000000007" bottom="0.39000000000000007" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="77" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Laktat_Testprotokoll.xlsx
+++ b/Laktat_Testprotokoll.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahocevar/projects/lactate-test-pacemaker/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{531AA571-CC14-FE4D-8C54-3358E55829D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6440" yWindow="-21580" windowWidth="25360" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="-2520" yWindow="-21160" windowWidth="16160" windowHeight="21160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6-7-8-9-10-11-12 kmh" sheetId="1" r:id="rId1"/>
@@ -24,7 +30,7 @@
     <definedName name="X" localSheetId="1">'6.5-8-9.5-11-12.5-14 kmh'!$B$39</definedName>
     <definedName name="X">'6-7-8-9-10-11-12 kmh'!$B$40</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -487,16 +493,16 @@
     </r>
   </si>
   <si>
-    <t>7 x 1200</t>
+    <t>1 x 400 m, 6 x 800 m</t>
   </si>
   <si>
-    <t>6 x 1200</t>
+    <t>4 x 800 m, 2 x 1.200 m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;&lt; &quot;0"/>
@@ -838,12 +844,6 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -868,6 +868,12 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="161">
@@ -1124,11 +1130,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1171,22 +1185,22 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.666666666666666</c:v>
+                  <c:v>1.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.944444444444444</c:v>
+                  <c:v>1.9444444444444444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.222222222222222</c:v>
+                  <c:v>2.2222222222222223</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.777777777777777</c:v>
+                  <c:v>2.7777777777777777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.055555555555555</c:v>
+                  <c:v>3.0555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.333333333333333</c:v>
@@ -1204,6 +1218,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D86-6E48-BEE5-21E75C35B227}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1229,10 +1248,10 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,15 +1263,20 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D86-6E48-BEE5-21E75C35B227}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1277,10 +1301,10 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,15 +1316,20 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3D86-6E48-BEE5-21E75C35B227}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1340,22 +1369,22 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.666666666666666</c:v>
+                  <c:v>1.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.944444444444444</c:v>
+                  <c:v>1.9444444444444444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.222222222222222</c:v>
+                  <c:v>2.2222222222222223</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.777777777777777</c:v>
+                  <c:v>2.7777777777777777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.055555555555555</c:v>
+                  <c:v>3.0555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.333333333333333</c:v>
@@ -1373,6 +1402,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3D86-6E48-BEE5-21E75C35B227}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1397,13 +1431,13 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,18 +1449,23 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3D86-6E48-BEE5-21E75C35B227}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1451,13 +1490,13 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1469,18 +1508,23 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3D86-6E48-BEE5-21E75C35B227}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1524,8 +1568,8 @@
         <c:axId val="2046949912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9.0"/>
-          <c:min val="0.0"/>
+          <c:max val="9"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1552,8 +1596,8 @@
         <c:axId val="2046952888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="225.0"/>
-          <c:min val="0.0"/>
+          <c:max val="225"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -1574,7 +1618,7 @@
         <c:crossAx val="2046943272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="25.0"/>
+        <c:majorUnit val="25"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2046943272"/>
@@ -1602,7 +1646,6 @@
         <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1621,14 +1664,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1671,22 +1714,22 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.805555555555556</c:v>
+                  <c:v>1.8055555555555556</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.222222222222222</c:v>
+                  <c:v>2.2222222222222223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.638888888888889</c:v>
+                  <c:v>2.6388888888888888</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.055555555555555</c:v>
+                  <c:v>3.0555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.472222222222222</c:v>
+                  <c:v>3.4722222222222223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.888888888888889</c:v>
+                  <c:v>3.8888888888888888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1701,6 +1744,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9E2-AB44-8A14-7871C2057F1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1726,10 +1774,10 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1741,15 +1789,20 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B9E2-AB44-8A14-7871C2057F1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1774,10 +1827,10 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1789,15 +1842,20 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B9E2-AB44-8A14-7871C2057F1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1837,22 +1895,22 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.805555555555556</c:v>
+                  <c:v>1.8055555555555556</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.222222222222222</c:v>
+                  <c:v>2.2222222222222223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.638888888888889</c:v>
+                  <c:v>2.6388888888888888</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.055555555555555</c:v>
+                  <c:v>3.0555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.472222222222222</c:v>
+                  <c:v>3.4722222222222223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.888888888888889</c:v>
+                  <c:v>3.8888888888888888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1867,6 +1925,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B9E2-AB44-8A14-7871C2057F1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1891,13 +1954,13 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1909,18 +1972,23 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B9E2-AB44-8A14-7871C2057F1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1945,13 +2013,13 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1963,18 +2031,23 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B9E2-AB44-8A14-7871C2057F1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2018,8 +2091,8 @@
         <c:axId val="2130391000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9.0"/>
-          <c:min val="0.0"/>
+          <c:max val="9"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2046,8 +2119,8 @@
         <c:axId val="-2146892552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="225.0"/>
-          <c:min val="0.0"/>
+          <c:max val="225"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -2068,7 +2141,7 @@
         <c:crossAx val="2129993192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="25.0"/>
+        <c:majorUnit val="25"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2129993192"/>
@@ -2096,7 +2169,6 @@
         <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2115,7 +2187,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2138,7 +2210,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2168,7 +2246,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="static_qr_code_without_logo.jpg"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="static_qr_code_without_logo.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2217,7 +2301,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2249,7 +2339,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="static_qr_code_without_logo.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="static_qr_code_without_logo.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2602,17 +2698,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
@@ -2620,57 +2716,57 @@
     <col min="12" max="12" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1">
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1">
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -2680,15 +2776,15 @@
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1">
+    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
@@ -2696,7 +2792,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" ht="21" customHeight="1">
+    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
@@ -2710,121 +2806,121 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21" customHeight="1">
+    <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
-        <f>1200/B10/86400</f>
-        <v>8.333333333333335E-3</v>
+        <f>400/B10/86400</f>
+        <v>2.7777777777777783E-3</v>
       </c>
       <c r="B10" s="5">
         <f>6/3.6</f>
         <v>1.6666666666666665</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="30"/>
-    </row>
-    <row r="11" spans="1:4" ht="21" customHeight="1">
+      <c r="C10" s="26"/>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
-        <f t="shared" ref="A11:A16" si="0">1200/B11/86400</f>
-        <v>7.1428571428571426E-3</v>
+        <f>800/B11/86400</f>
+        <v>4.7619047619047623E-3</v>
       </c>
       <c r="B11" s="5">
         <f>7/3.6</f>
         <v>1.9444444444444444</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="30"/>
-    </row>
-    <row r="12" spans="1:4" ht="21" customHeight="1">
+      <c r="C11" s="26"/>
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
-        <f t="shared" si="0"/>
-        <v>6.2500000000000003E-3</v>
+        <f>800/B12/86400</f>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="B12" s="5">
         <f>8/3.6</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="30"/>
-    </row>
-    <row r="13" spans="1:4" ht="21" customHeight="1">
+      <c r="C12" s="26"/>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555558E-3</v>
+        <f>800/B13/86400</f>
+        <v>3.7037037037037038E-3</v>
       </c>
       <c r="B13" s="5">
         <f>9/3.6</f>
         <v>2.5</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-    </row>
-    <row r="14" spans="1:4" ht="21" customHeight="1">
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <f>800/B14/86400</f>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="B14" s="5">
         <f>10/3.6</f>
         <v>2.7777777777777777</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="30"/>
-    </row>
-    <row r="15" spans="1:4" ht="21" customHeight="1">
+      <c r="C14" s="26"/>
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
-        <f t="shared" si="0"/>
-        <v>4.5454545454545461E-3</v>
+        <f>800/B15/86400</f>
+        <v>3.0303030303030303E-3</v>
       </c>
       <c r="B15" s="5">
         <f>11/3.6</f>
         <v>3.0555555555555554</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-    </row>
-    <row r="16" spans="1:4" ht="21" customHeight="1">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666675E-3</v>
+        <f>800/B16/86400</f>
+        <v>2.7777777777777783E-3</v>
       </c>
       <c r="B16" s="5">
         <f>12/3.6</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:4" ht="21" customHeight="1">
+      <c r="C16" s="26"/>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" ht="21" customHeight="1">
+    <row r="18" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="21" customHeight="1">
+    <row r="19" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" ht="21" customHeight="1">
+    <row r="20" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" ht="21" customHeight="1">
+    <row r="21" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="26"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" ht="21" customHeight="1">
+    <row r="22" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>0</v>
       </c>
@@ -2835,7 +2931,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" ht="21" customHeight="1">
+    <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="e">
         <f ca="1">D39</f>
         <v>#DIV/0!</v>
@@ -2847,7 +2943,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4" ht="21" customHeight="1">
+    <row r="24" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="e">
         <f ca="1">D39</f>
         <v>#DIV/0!</v>
@@ -2858,7 +2954,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" ht="21" customHeight="1">
+    <row r="25" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="e">
         <f ca="1">D39</f>
         <v>#DIV/0!</v>
@@ -2870,7 +2966,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" ht="21" customHeight="1">
+    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2878,16 +2974,16 @@
         <f>B40</f>
         <v>4</v>
       </c>
-      <c r="C26" s="25" t="e">
+      <c r="C26" s="23" t="e">
         <f ca="1">FORECAST(1.5,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="26" t="e">
+      <c r="D26" s="24" t="e">
         <f ca="1">FORECAST(1.5,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="21" customHeight="1">
+    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="e">
         <f ca="1">D40</f>
         <v>#DIV/0!</v>
@@ -2896,16 +2992,16 @@
         <f>B40</f>
         <v>4</v>
       </c>
-      <c r="C27" s="25" t="e">
+      <c r="C27" s="23" t="e">
         <f ca="1">FORECAST(2.5,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="26" t="e">
+      <c r="D27" s="24" t="e">
         <f ca="1">FORECAST(2.5,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="21" customHeight="1">
+    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="e">
         <f ca="1">D40</f>
         <v>#DIV/0!</v>
@@ -2913,16 +3009,16 @@
       <c r="B28" s="14">
         <v>0</v>
       </c>
-      <c r="C28" s="25" t="e">
+      <c r="C28" s="23" t="e">
         <f ca="1">FORECAST(3,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D28" s="26" t="e">
+      <c r="D28" s="24" t="e">
         <f ca="1">FORECAST(3,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="21" customHeight="1">
+    <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="e">
         <f ca="1">D40</f>
         <v>#DIV/0!</v>
@@ -2931,22 +3027,22 @@
         <f ca="1">C40</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C29" s="25" t="e">
+      <c r="C29" s="23" t="e">
         <f ca="1">FORECAST(6,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="26" t="e">
+      <c r="D29" s="24" t="e">
         <f ca="1">FORECAST(6,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="21" customHeight="1">
+    <row r="30" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4" ht="21" customHeight="1">
+    <row r="31" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>25</v>
       </c>
@@ -2954,7 +3050,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4" ht="21" customHeight="1">
+    <row r="32" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>4</v>
       </c>
@@ -2968,7 +3064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="21" customHeight="1">
+    <row r="33" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>11</v>
       </c>
@@ -2984,7 +3080,7 @@
         <v>&lt; ?</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="21" customHeight="1">
+    <row r="34" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>12</v>
       </c>
@@ -3000,7 +3096,7 @@
         <v>? - ?</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="21" customHeight="1">
+    <row r="35" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>13</v>
       </c>
@@ -3016,13 +3112,13 @@
         <v>? - ?/?</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="21" customHeight="1">
+    <row r="36" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:12" ht="21" customHeight="1">
+    <row r="37" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>1</v>
       </c>
@@ -3030,7 +3126,7 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:12" ht="21" customHeight="1">
+    <row r="38" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="11" t="s">
         <v>5</v>
@@ -3042,7 +3138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="21" customHeight="1">
+    <row r="39" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>2</v>
       </c>
@@ -3053,12 +3149,12 @@
         <f ca="1">FORECAST(2,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D39" s="24" t="e">
+      <c r="D39" s="22" t="e">
         <f ca="1">FORECAST(2,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="21" customHeight="1">
+    <row r="40" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>3</v>
       </c>
@@ -3069,19 +3165,19 @@
         <f ca="1">FORECAST(4,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="24" t="e">
+      <c r="D40" s="22" t="e">
         <f ca="1">FORECAST(4,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="24" customHeight="1"/>
-    <row r="42" spans="1:12" ht="56" customHeight="1">
-      <c r="A42" s="22" t="s">
+    <row r="41" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:12" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
@@ -3091,30 +3187,29 @@
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
     </row>
-    <row r="43" spans="1:12" ht="24" customHeight="1"/>
+    <row r="43" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A42:D42"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C39">
-    <cfRule type="containsErrors" dxfId="3" priority="4">
+    <cfRule type="containsErrors" dxfId="7" priority="4">
       <formula>ISERROR(C39)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="containsErrors" dxfId="2" priority="3">
+    <cfRule type="containsErrors" dxfId="6" priority="3">
       <formula>ISERROR(C40)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="containsErrors" dxfId="1" priority="2">
+    <cfRule type="containsErrors" dxfId="5" priority="2">
       <formula>ISERROR(D39)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="containsErrors" dxfId="0" priority="1">
+    <cfRule type="containsErrors" dxfId="4" priority="1">
       <formula>ISERROR(D40)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3131,17 +3226,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F16" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
@@ -3149,57 +3244,57 @@
     <col min="12" max="12" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1">
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1">
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -3209,15 +3304,15 @@
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1">
+    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
@@ -3225,7 +3320,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" ht="21" customHeight="1">
+    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
@@ -3239,109 +3334,109 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21" customHeight="1">
+    <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
-        <f>1200/B10/86400</f>
-        <v>7.6923076923076927E-3</v>
+        <f>800/B10/86400</f>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="B10" s="5">
         <f>6.5/3.6</f>
         <v>1.8055555555555556</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="30"/>
-    </row>
-    <row r="11" spans="1:4" ht="21" customHeight="1">
+      <c r="C10" s="26"/>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
-        <f t="shared" ref="A11:A15" si="0">1200/B11/86400</f>
-        <v>6.2500000000000003E-3</v>
+        <f>800/B11/86400</f>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="B11" s="5">
         <f>8/3.6</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="30"/>
-    </row>
-    <row r="12" spans="1:4" ht="21" customHeight="1">
+      <c r="C11" s="26"/>
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
-        <f t="shared" si="0"/>
-        <v>5.263157894736842E-3</v>
+        <f>800/B12/86400</f>
+        <v>3.5087719298245619E-3</v>
       </c>
       <c r="B12" s="5">
         <f>9.5/3.6</f>
         <v>2.6388888888888888</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-    </row>
-    <row r="13" spans="1:4" ht="21" customHeight="1">
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
-        <f t="shared" si="0"/>
-        <v>4.5454545454545461E-3</v>
+        <f>800/B13/86400</f>
+        <v>3.0303030303030303E-3</v>
       </c>
       <c r="B13" s="5">
         <f>11/3.6</f>
         <v>3.0555555555555554</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="30"/>
-    </row>
-    <row r="14" spans="1:4" ht="21" customHeight="1">
+      <c r="C13" s="26"/>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
-        <f t="shared" si="0"/>
+        <f>1200/B14/86400</f>
         <v>3.9999999999999992E-3</v>
       </c>
       <c r="B14" s="5">
         <f>12.5/3.6</f>
         <v>3.4722222222222223</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-    </row>
-    <row r="15" spans="1:4" ht="21" customHeight="1">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A11:A15" si="0">1200/B15/86400</f>
         <v>3.5714285714285713E-3</v>
       </c>
       <c r="B15" s="5">
         <f>14/3.6</f>
         <v>3.8888888888888888</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="30"/>
-    </row>
-    <row r="16" spans="1:4" ht="21" customHeight="1">
+      <c r="C15" s="26"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" ht="21" customHeight="1">
+    <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" ht="21" customHeight="1">
+    <row r="18" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="21" customHeight="1">
+    <row r="19" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" ht="21" customHeight="1">
+    <row r="20" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="26"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" ht="21" customHeight="1">
+    <row r="21" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>0</v>
       </c>
@@ -3352,7 +3447,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" ht="21" customHeight="1">
+    <row r="22" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="e">
         <f ca="1">D38</f>
         <v>#DIV/0!</v>
@@ -3364,7 +3459,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" ht="21" customHeight="1">
+    <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="e">
         <f ca="1">D38</f>
         <v>#DIV/0!</v>
@@ -3375,7 +3470,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4" ht="21" customHeight="1">
+    <row r="24" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="e">
         <f ca="1">D38</f>
         <v>#DIV/0!</v>
@@ -3387,7 +3482,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" ht="21" customHeight="1">
+    <row r="25" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -3395,16 +3490,16 @@
         <f>B39</f>
         <v>4</v>
       </c>
-      <c r="C25" s="25" t="e">
+      <c r="C25" s="23" t="e">
         <f ca="1">FORECAST(1.5,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="26" t="e">
+      <c r="D25" s="24" t="e">
         <f ca="1">FORECAST(1.5,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="21" customHeight="1">
+    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="e">
         <f ca="1">D39</f>
         <v>#DIV/0!</v>
@@ -3413,16 +3508,16 @@
         <f>B39</f>
         <v>4</v>
       </c>
-      <c r="C26" s="25" t="e">
+      <c r="C26" s="23" t="e">
         <f ca="1">FORECAST(2.5,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="26" t="e">
+      <c r="D26" s="24" t="e">
         <f ca="1">FORECAST(2.5,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="21" customHeight="1">
+    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="e">
         <f ca="1">D39</f>
         <v>#DIV/0!</v>
@@ -3430,16 +3525,16 @@
       <c r="B27" s="14">
         <v>0</v>
       </c>
-      <c r="C27" s="25" t="e">
+      <c r="C27" s="23" t="e">
         <f ca="1">FORECAST(3,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="26" t="e">
+      <c r="D27" s="24" t="e">
         <f ca="1">FORECAST(3,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="21" customHeight="1">
+    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="e">
         <f ca="1">D39</f>
         <v>#DIV/0!</v>
@@ -3448,22 +3543,22 @@
         <f ca="1">C39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C28" s="25" t="e">
+      <c r="C28" s="23" t="e">
         <f ca="1">FORECAST(6,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D28" s="26" t="e">
+      <c r="D28" s="24" t="e">
         <f ca="1">FORECAST(6,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="21" customHeight="1">
+    <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" ht="21" customHeight="1">
+    <row r="30" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>25</v>
       </c>
@@ -3471,7 +3566,7 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4" ht="21" customHeight="1">
+    <row r="31" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -3485,7 +3580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="21" customHeight="1">
+    <row r="32" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>11</v>
       </c>
@@ -3501,7 +3596,7 @@
         <v>&lt; ?</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="21" customHeight="1">
+    <row r="33" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>12</v>
       </c>
@@ -3517,7 +3612,7 @@
         <v>? - ?</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="21" customHeight="1">
+    <row r="34" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>13</v>
       </c>
@@ -3533,13 +3628,13 @@
         <v>? - ?/?</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="21" customHeight="1">
+    <row r="35" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:12" ht="21" customHeight="1">
+    <row r="36" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>1</v>
       </c>
@@ -3547,7 +3642,7 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:12" ht="21" customHeight="1">
+    <row r="37" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="11" t="s">
         <v>5</v>
@@ -3559,7 +3654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="21" customHeight="1">
+    <row r="38" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>2</v>
       </c>
@@ -3570,12 +3665,12 @@
         <f ca="1">FORECAST(2,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="24" t="e">
+      <c r="D38" s="22" t="e">
         <f ca="1">FORECAST(2,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="21" customHeight="1">
+    <row r="39" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>3</v>
       </c>
@@ -3586,19 +3681,19 @@
         <f ca="1">FORECAST(4,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D39" s="24" t="e">
+      <c r="D39" s="22" t="e">
         <f ca="1">FORECAST(4,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="24" customHeight="1"/>
-    <row r="41" spans="1:12" ht="56" customHeight="1">
-      <c r="A41" s="22" t="s">
+    <row r="40" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:12" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
@@ -3608,29 +3703,28 @@
       <c r="K41" s="18"/>
       <c r="L41" s="18"/>
     </row>
-    <row r="42" spans="1:12" ht="24" customHeight="1"/>
+    <row r="42" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A41:D41"/>
   </mergeCells>
   <conditionalFormatting sqref="C38">
-    <cfRule type="containsErrors" dxfId="7" priority="5">
+    <cfRule type="containsErrors" dxfId="3" priority="5">
       <formula>ISERROR(C38)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="containsErrors" dxfId="6" priority="3">
+    <cfRule type="containsErrors" dxfId="2" priority="3">
       <formula>ISERROR(C39)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="containsErrors" dxfId="5" priority="2">
+    <cfRule type="containsErrors" dxfId="1" priority="2">
       <formula>ISERROR(D38)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="containsErrors" dxfId="4" priority="1">
+    <cfRule type="containsErrors" dxfId="0" priority="1">
       <formula>ISERROR(D39)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Laktat_Testprotokoll.xlsx
+++ b/Laktat_Testprotokoll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahocevar/projects/lactate-test-pacemaker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{531AA571-CC14-FE4D-8C54-3358E55829D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{30EE7743-CCC9-4444-84F6-6ED0101949AC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2520" yWindow="-21160" windowWidth="16160" windowHeight="21160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2520" yWindow="-21160" windowWidth="16160" windowHeight="21160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6-7-8-9-10-11-12 kmh" sheetId="1" r:id="rId1"/>
@@ -493,10 +493,10 @@
     </r>
   </si>
   <si>
-    <t>1 x 400 m, 6 x 800 m</t>
+    <t>4 x 800 m, 3 x 1200 m</t>
   </si>
   <si>
-    <t>4 x 800 m, 2 x 1.200 m</t>
+    <t>3 x 800 m, 3 x 1.200 m</t>
   </si>
 </sst>
 </file>
@@ -2704,8 +2704,8 @@
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2808,8 +2808,8 @@
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
-        <f>400/B10/86400</f>
-        <v>2.7777777777777783E-3</v>
+        <f>800/B10/86400</f>
+        <v>5.5555555555555566E-3</v>
       </c>
       <c r="B10" s="5">
         <f>6/3.6</f>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
-        <f>800/B11/86400</f>
+        <f t="shared" ref="A11:A16" si="0">800/B11/86400</f>
         <v>4.7619047619047623E-3</v>
       </c>
       <c r="B11" s="5">
@@ -2832,7 +2832,7 @@
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
-        <f>800/B12/86400</f>
+        <f t="shared" si="0"/>
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="B12" s="5">
@@ -2844,7 +2844,7 @@
     </row>
     <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
-        <f>800/B13/86400</f>
+        <f t="shared" si="0"/>
         <v>3.7037037037037038E-3</v>
       </c>
       <c r="B13" s="5">
@@ -2856,8 +2856,8 @@
     </row>
     <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
-        <f>800/B14/86400</f>
-        <v>3.3333333333333335E-3</v>
+        <f>1200/B14/86400</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B14" s="5">
         <f>10/3.6</f>
@@ -2868,8 +2868,8 @@
     </row>
     <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
-        <f>800/B15/86400</f>
-        <v>3.0303030303030303E-3</v>
+        <f>1200/B15/86400</f>
+        <v>4.5454545454545461E-3</v>
       </c>
       <c r="B15" s="5">
         <f>11/3.6</f>
@@ -2880,8 +2880,8 @@
     </row>
     <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
-        <f>800/B16/86400</f>
-        <v>2.7777777777777783E-3</v>
+        <f>1200/B16/86400</f>
+        <v>4.1666666666666675E-3</v>
       </c>
       <c r="B16" s="5">
         <f>12/3.6</f>
@@ -3189,6 +3189,7 @@
     </row>
     <row r="43" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A42:D42"/>
   </mergeCells>
@@ -3232,8 +3233,8 @@
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3372,8 +3373,8 @@
     </row>
     <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
-        <f>800/B13/86400</f>
-        <v>3.0303030303030303E-3</v>
+        <f>1200/B13/86400</f>
+        <v>4.5454545454545461E-3</v>
       </c>
       <c r="B13" s="5">
         <f>11/3.6</f>
@@ -3396,7 +3397,7 @@
     </row>
     <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
-        <f t="shared" ref="A11:A15" si="0">1200/B15/86400</f>
+        <f t="shared" ref="A15" si="0">1200/B15/86400</f>
         <v>3.5714285714285713E-3</v>
       </c>
       <c r="B15" s="5">
@@ -3705,6 +3706,7 @@
     </row>
     <row r="42" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A41:D41"/>
   </mergeCells>

--- a/Laktat_Testprotokoll.xlsx
+++ b/Laktat_Testprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahocevar/projects/lactate-test-pacemaker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{30EE7743-CCC9-4444-84F6-6ED0101949AC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CBE57403-40C6-9846-B381-0FEEAF001B53}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2520" yWindow="-21160" windowWidth="16160" windowHeight="21160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,10 +493,10 @@
     </r>
   </si>
   <si>
-    <t>4 x 800 m, 3 x 1200 m</t>
+    <t>3 x 800 m, 3 x 1.200 m</t>
   </si>
   <si>
-    <t>3 x 800 m, 3 x 1.200 m</t>
+    <t>4 x 800 m, 3 x 1.200 m</t>
   </si>
 </sst>
 </file>
@@ -2705,7 +2705,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2771,7 +2771,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
-        <f t="shared" ref="A11:A16" si="0">800/B11/86400</f>
+        <f t="shared" ref="A11:A13" si="0">800/B11/86400</f>
         <v>4.7619047619047623E-3</v>
       </c>
       <c r="B11" s="5">
@@ -3300,7 +3300,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>

--- a/Laktat_Testprotokoll.xlsx
+++ b/Laktat_Testprotokoll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahocevar/projects/lactate-test-pacemaker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CBE57403-40C6-9846-B381-0FEEAF001B53}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F981FD3D-872E-3246-A071-1464EA450D2C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2520" yWindow="-21160" windowWidth="16160" windowHeight="21160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="16160" windowHeight="20560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6-7-8-9-10-11-12 kmh" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>2,5 - 3,0/6,0</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -219,33 +219,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>(m/s)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Zeit</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(min)</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -498,15 +471,69 @@
   <si>
     <t>4 x 800 m, 3 x 1.200 m</t>
   </si>
+  <si>
+    <r>
+      <t>Geschwindigkeit</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(km/h)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Streckenlänge - Zeit</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(min)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;&lt; &quot;0"/>
     <numFmt numFmtId="166" formatCode="&quot;&lt; &quot;0.0"/>
+    <numFmt numFmtId="168" formatCode="&quot;800 m - &quot;mm:ss"/>
+    <numFmt numFmtId="169" formatCode="&quot;1.200 m - &quot;mm:ss"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -783,7 +810,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -826,9 +853,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="45" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -874,6 +898,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="161">
@@ -1185,25 +1215,25 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.6666666666666665</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9444444444444444</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2222222222222223</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7777777777777777</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0555555555555554</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.333333333333333</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1369,25 +1399,25 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.6666666666666665</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9444444444444444</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2222222222222223</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7777777777777777</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0555555555555554</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.333333333333333</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1714,22 +1744,22 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.8055555555555556</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2222222222222223</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6388888888888888</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0555555555555554</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4722222222222223</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8888888888888888</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1895,22 +1925,22 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.8055555555555556</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2222222222222223</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6388888888888888</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0555555555555554</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4722222222222223</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8888888888888888</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2704,8 +2734,8 @@
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2718,65 +2748,65 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="25"/>
+        <v>16</v>
+      </c>
+      <c r="B2" s="24"/>
       <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="25"/>
+        <v>8</v>
+      </c>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="25"/>
+        <v>9</v>
+      </c>
+      <c r="B3" s="24"/>
       <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="25"/>
+        <v>19</v>
+      </c>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="25"/>
+        <v>17</v>
+      </c>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -2786,7 +2816,7 @@
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2794,10 +2824,10 @@
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>5</v>
@@ -2807,88 +2837,88 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+      <c r="A10" s="30">
         <f>800/B10/86400</f>
-        <v>5.5555555555555566E-3</v>
+        <v>1.54320987654321E-3</v>
       </c>
       <c r="B10" s="5">
-        <f>6/3.6</f>
-        <v>1.6666666666666665</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="28"/>
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+      <c r="A11" s="30">
         <f t="shared" ref="A11:A13" si="0">800/B11/86400</f>
-        <v>4.7619047619047623E-3</v>
+        <v>1.3227513227513229E-3</v>
       </c>
       <c r="B11" s="5">
-        <f>7/3.6</f>
-        <v>1.9444444444444444</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="28"/>
+        <f>7</f>
+        <v>7</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
+      <c r="A12" s="30">
         <f t="shared" si="0"/>
-        <v>4.1666666666666666E-3</v>
+        <v>1.1574074074074073E-3</v>
       </c>
       <c r="B12" s="5">
-        <f>8/3.6</f>
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="28"/>
+        <f>8</f>
+        <v>8</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
+      <c r="A13" s="30">
         <f t="shared" si="0"/>
-        <v>3.7037037037037038E-3</v>
+        <v>1.0288065843621398E-3</v>
       </c>
       <c r="B13" s="5">
-        <f>9/3.6</f>
-        <v>2.5</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
+        <f>9</f>
+        <v>9</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
+      <c r="A14" s="31">
         <f>1200/B14/86400</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="B14" s="5">
-        <f>10/3.6</f>
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="28"/>
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+      <c r="A15" s="31">
         <f>1200/B15/86400</f>
-        <v>4.5454545454545461E-3</v>
+        <v>1.2626262626262627E-3</v>
       </c>
       <c r="B15" s="5">
-        <f>11/3.6</f>
-        <v>3.0555555555555554</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
+        <f>11</f>
+        <v>11</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
+      <c r="A16" s="31">
         <f>1200/B16/86400</f>
-        <v>4.1666666666666675E-3</v>
+        <v>1.1574074074074073E-3</v>
       </c>
       <c r="B16" s="5">
-        <f>12/3.6</f>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="28"/>
+        <f>12</f>
+        <v>12</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
@@ -2917,7 +2947,7 @@
     <row r="21" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="24"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2974,11 +3004,11 @@
         <f>B40</f>
         <v>4</v>
       </c>
-      <c r="C26" s="23" t="e">
+      <c r="C26" s="22" t="e">
         <f ca="1">FORECAST(1.5,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="24" t="e">
+      <c r="D26" s="23" t="e">
         <f ca="1">FORECAST(1.5,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
@@ -2992,11 +3022,11 @@
         <f>B40</f>
         <v>4</v>
       </c>
-      <c r="C27" s="23" t="e">
+      <c r="C27" s="22" t="e">
         <f ca="1">FORECAST(2.5,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="24" t="e">
+      <c r="D27" s="23" t="e">
         <f ca="1">FORECAST(2.5,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
@@ -3009,11 +3039,11 @@
       <c r="B28" s="14">
         <v>0</v>
       </c>
-      <c r="C28" s="23" t="e">
+      <c r="C28" s="22" t="e">
         <f ca="1">FORECAST(3,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D28" s="24" t="e">
+      <c r="D28" s="23" t="e">
         <f ca="1">FORECAST(3,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
@@ -3027,11 +3057,11 @@
         <f ca="1">C40</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C29" s="23" t="e">
+      <c r="C29" s="22" t="e">
         <f ca="1">FORECAST(6,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="24" t="e">
+      <c r="D29" s="23" t="e">
         <f ca="1">FORECAST(6,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
@@ -3044,7 +3074,7 @@
     </row>
     <row r="31" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -3066,48 +3096,48 @@
     </row>
     <row r="33" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="19" t="str">
+        <v>25</v>
+      </c>
+      <c r="C33" s="18" t="str">
         <f ca="1">"&lt; "&amp;IFERROR(TEXT(C26,"0"),"?")</f>
         <v>&lt; ?</v>
       </c>
-      <c r="D33" s="20" t="str">
+      <c r="D33" s="19" t="str">
         <f ca="1">"&lt; "&amp;IFERROR(TEXT(D26,"0,0"),"?")</f>
         <v>&lt; ?</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="19" t="str">
+        <v>26</v>
+      </c>
+      <c r="C34" s="18" t="str">
         <f ca="1">IFERROR(TEXT(C26,"0"),"?")&amp;" - "&amp;IFERROR(TEXT(C27,"0"),"?")</f>
         <v>? - ?</v>
       </c>
-      <c r="D34" s="19" t="str">
+      <c r="D34" s="18" t="str">
         <f ca="1">IFERROR(TEXT(D26,"0,0"),"?")&amp;" - "&amp;IFERROR(TEXT(D27,"0,0"),"?")</f>
         <v>? - ?</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="19" t="str">
+      <c r="C35" s="18" t="str">
         <f ca="1">IFERROR(TEXT(C27,"0"),"?")&amp;" - "&amp;IFERROR(TEXT(C28,"0"),"?")&amp;"/"&amp;IFERROR(TEXT(C29,"0"),"?")</f>
         <v>? - ?/?</v>
       </c>
-      <c r="D35" s="19" t="str">
+      <c r="D35" s="18" t="str">
         <f ca="1">IFERROR(TEXT(D27,"0,0"),"?")&amp;" - "&amp;IFERROR(TEXT(D28,"0,0"),"?")&amp;"/"&amp;IFERROR(TEXT(D29,"0,0"),"?")</f>
         <v>? - ?/?</v>
       </c>
@@ -3145,11 +3175,11 @@
       <c r="B39" s="5">
         <v>2</v>
       </c>
-      <c r="C39" s="21" t="e">
+      <c r="C39" s="20" t="e">
         <f ca="1">FORECAST(2,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D39" s="22" t="e">
+      <c r="D39" s="21" t="e">
         <f ca="1">FORECAST(2,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
@@ -3161,31 +3191,31 @@
       <c r="B40" s="5">
         <v>4</v>
       </c>
-      <c r="C40" s="21" t="e">
+      <c r="C40" s="20" t="e">
         <f ca="1">FORECAST(4,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="22" t="e">
+      <c r="D40" s="21" t="e">
         <f ca="1">FORECAST(4,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:12" ht="56" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
+      <c r="A42" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
     </row>
     <row r="43" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -3233,8 +3263,8 @@
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3247,65 +3277,65 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="25"/>
+        <v>16</v>
+      </c>
+      <c r="B2" s="24"/>
       <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="25"/>
+        <v>8</v>
+      </c>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="25"/>
+        <v>9</v>
+      </c>
+      <c r="B3" s="24"/>
       <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="25"/>
+        <v>19</v>
+      </c>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="25"/>
+        <v>17</v>
+      </c>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -3315,7 +3345,7 @@
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -3323,10 +3353,10 @@
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>5</v>
@@ -3336,76 +3366,76 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+      <c r="A10" s="30">
         <f>800/B10/86400</f>
-        <v>5.1282051282051282E-3</v>
+        <v>1.4245014245014246E-3</v>
       </c>
       <c r="B10" s="5">
-        <f>6.5/3.6</f>
-        <v>1.8055555555555556</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="28"/>
+        <f>6.5</f>
+        <v>6.5</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+      <c r="A11" s="30">
         <f>800/B11/86400</f>
-        <v>4.1666666666666666E-3</v>
+        <v>1.1574074074074073E-3</v>
       </c>
       <c r="B11" s="5">
-        <f>8/3.6</f>
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="28"/>
+        <f>8</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
+      <c r="A12" s="30">
         <f>800/B12/86400</f>
-        <v>3.5087719298245619E-3</v>
+        <v>9.7465886939571156E-4</v>
       </c>
       <c r="B12" s="5">
-        <f>9.5/3.6</f>
-        <v>2.6388888888888888</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+        <f>9.5</f>
+        <v>9.5</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
+      <c r="A13" s="31">
         <f>1200/B13/86400</f>
-        <v>4.5454545454545461E-3</v>
+        <v>1.2626262626262627E-3</v>
       </c>
       <c r="B13" s="5">
-        <f>11/3.6</f>
-        <v>3.0555555555555554</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="28"/>
+        <f>11</f>
+        <v>11</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
+      <c r="A14" s="31">
         <f>1200/B14/86400</f>
-        <v>3.9999999999999992E-3</v>
+        <v>1.1111111111111111E-3</v>
       </c>
       <c r="B14" s="5">
-        <f>12.5/3.6</f>
-        <v>3.4722222222222223</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
+        <f>12.5</f>
+        <v>12.5</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+      <c r="A15" s="31">
         <f t="shared" ref="A15" si="0">1200/B15/86400</f>
-        <v>3.5714285714285713E-3</v>
+        <v>9.9206349206349201E-4</v>
       </c>
       <c r="B15" s="5">
-        <f>14/3.6</f>
-        <v>3.8888888888888888</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="28"/>
+        <f>14</f>
+        <v>14</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
@@ -3434,7 +3464,7 @@
     <row r="20" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="24"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -3491,11 +3521,11 @@
         <f>B39</f>
         <v>4</v>
       </c>
-      <c r="C25" s="23" t="e">
+      <c r="C25" s="22" t="e">
         <f ca="1">FORECAST(1.5,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="24" t="e">
+      <c r="D25" s="23" t="e">
         <f ca="1">FORECAST(1.5,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,1.5),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
@@ -3509,11 +3539,11 @@
         <f>B39</f>
         <v>4</v>
       </c>
-      <c r="C26" s="23" t="e">
+      <c r="C26" s="22" t="e">
         <f ca="1">FORECAST(2.5,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="24" t="e">
+      <c r="D26" s="23" t="e">
         <f ca="1">FORECAST(2.5,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2.5),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
@@ -3526,11 +3556,11 @@
       <c r="B27" s="14">
         <v>0</v>
       </c>
-      <c r="C27" s="23" t="e">
+      <c r="C27" s="22" t="e">
         <f ca="1">FORECAST(3,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="24" t="e">
+      <c r="D27" s="23" t="e">
         <f ca="1">FORECAST(3,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,3),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
@@ -3544,11 +3574,11 @@
         <f ca="1">C39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C28" s="23" t="e">
+      <c r="C28" s="22" t="e">
         <f ca="1">FORECAST(6,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D28" s="24" t="e">
+      <c r="D28" s="23" t="e">
         <f ca="1">FORECAST(6,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,6),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
@@ -3561,7 +3591,7 @@
     </row>
     <row r="30" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -3583,48 +3613,48 @@
     </row>
     <row r="32" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="19" t="str">
+        <v>25</v>
+      </c>
+      <c r="C32" s="18" t="str">
         <f ca="1">"&lt; "&amp;IFERROR(TEXT(C25,"0"),"?")</f>
         <v>&lt; ?</v>
       </c>
-      <c r="D32" s="20" t="str">
+      <c r="D32" s="19" t="str">
         <f ca="1">"&lt; "&amp;IFERROR(TEXT(D25,"0,0"),"?")</f>
         <v>&lt; ?</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="19" t="str">
+        <v>26</v>
+      </c>
+      <c r="C33" s="18" t="str">
         <f ca="1">IFERROR(TEXT(C25,"0"),"?")&amp;" - "&amp;IFERROR(TEXT(C26,"0"),"?")</f>
         <v>? - ?</v>
       </c>
-      <c r="D33" s="19" t="str">
+      <c r="D33" s="18" t="str">
         <f ca="1">IFERROR(TEXT(D25,"0,0"),"?")&amp;" - "&amp;IFERROR(TEXT(D26,"0,0"),"?")</f>
         <v>? - ?</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="19" t="str">
+      <c r="C34" s="18" t="str">
         <f ca="1">IFERROR(TEXT(C26,"0"),"?")&amp;" - "&amp;IFERROR(TEXT(C27,"0"),"?")&amp;"/"&amp;IFERROR(TEXT(C28,"0"),"?")</f>
         <v>? - ?/?</v>
       </c>
-      <c r="D34" s="19" t="str">
+      <c r="D34" s="18" t="str">
         <f ca="1">IFERROR(TEXT(D26,"0,0"),"?")&amp;" - "&amp;IFERROR(TEXT(D27,"0,0"),"?")&amp;"/"&amp;IFERROR(TEXT(D28,"0,0"),"?")</f>
         <v>? - ?/?</v>
       </c>
@@ -3662,11 +3692,11 @@
       <c r="B38" s="5">
         <v>2</v>
       </c>
-      <c r="C38" s="21" t="e">
+      <c r="C38" s="20" t="e">
         <f ca="1">FORECAST(2,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="22" t="e">
+      <c r="D38" s="21" t="e">
         <f ca="1">FORECAST(2,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,2),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
@@ -3678,31 +3708,31 @@
       <c r="B39" s="5">
         <v>4</v>
       </c>
-      <c r="C39" s="21" t="e">
+      <c r="C39" s="20" t="e">
         <f ca="1">FORECAST(4,OFFSET(KnownY,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D39" s="22" t="e">
+      <c r="D39" s="21" t="e">
         <f ca="1">FORECAST(4,OFFSET(KnownV,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2),OFFSET(KnownX,IFERROR(MATCH(MIN(MAX(KnownX)-0.0001,4),KnownX,1)-1,0),0,2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:12" ht="56" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
+      <c r="A41" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
     </row>
     <row r="42" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>

--- a/Laktat_Testprotokoll.xlsx
+++ b/Laktat_Testprotokoll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahocevar/projects/lactate-test-pacemaker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F981FD3D-872E-3246-A071-1464EA450D2C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{22BC4EC4-0624-544F-9123-953C9436627B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="16160" windowHeight="20560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="16160" windowHeight="20560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6-7-8-9-10-11-12 kmh" sheetId="1" r:id="rId1"/>
@@ -473,32 +473,6 @@
   </si>
   <si>
     <r>
-      <t>Geschwindigkeit</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(km/h)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Streckenlänge - Zeit</t>
     </r>
     <r>
@@ -521,6 +495,32 @@
         <scheme val="minor"/>
       </rPr>
       <t>(min)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Geschwindigkeit</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(m/s)</t>
     </r>
   </si>
 </sst>
@@ -532,8 +532,8 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;&lt; &quot;0"/>
     <numFmt numFmtId="166" formatCode="&quot;&lt; &quot;0.0"/>
-    <numFmt numFmtId="168" formatCode="&quot;800 m - &quot;mm:ss"/>
-    <numFmt numFmtId="169" formatCode="&quot;1.200 m - &quot;mm:ss"/>
+    <numFmt numFmtId="167" formatCode="&quot;800 m - &quot;mm:ss"/>
+    <numFmt numFmtId="168" formatCode="&quot;1.200 m - &quot;mm:ss"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -893,17 +893,17 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="161">
@@ -1215,25 +1215,25 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>1.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>1.9444444444444444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>2.2222222222222223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>2.7777777777777777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>3.0555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>3.333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1399,25 +1399,25 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>1.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>1.9444444444444444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>2.2222222222222223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>2.7777777777777777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>3.0555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>3.333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1744,22 +1744,22 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.5</c:v>
+                  <c:v>1.8055555555555556</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>2.2222222222222223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5</c:v>
+                  <c:v>2.6388888888888888</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>3.0555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.5</c:v>
+                  <c:v>3.4722222222222223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>3.8888888888888888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1925,22 +1925,22 @@
                 <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.5</c:v>
+                  <c:v>1.8055555555555556</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>2.2222222222222223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5</c:v>
+                  <c:v>2.6388888888888888</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>3.0555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.5</c:v>
+                  <c:v>3.4722222222222223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>3.8888888888888888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2734,8 +2734,8 @@
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>5</v>
@@ -2837,85 +2837,85 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30">
+      <c r="A10" s="28">
         <f>800/B10/86400</f>
-        <v>1.54320987654321E-3</v>
+        <v>5.5555555555555566E-3</v>
       </c>
       <c r="B10" s="5">
-        <f>6</f>
-        <v>6</v>
+        <f>6/3.6</f>
+        <v>1.6666666666666665</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30">
+      <c r="A11" s="28">
         <f t="shared" ref="A11:A13" si="0">800/B11/86400</f>
-        <v>1.3227513227513229E-3</v>
+        <v>4.7619047619047623E-3</v>
       </c>
       <c r="B11" s="5">
-        <f>7</f>
-        <v>7</v>
+        <f>7/3.6</f>
+        <v>1.9444444444444444</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30">
+      <c r="A12" s="28">
         <f t="shared" si="0"/>
-        <v>1.1574074074074073E-3</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="B12" s="5">
-        <f>8</f>
-        <v>8</v>
+        <f>8/3.6</f>
+        <v>2.2222222222222223</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30">
+      <c r="A13" s="28">
         <f t="shared" si="0"/>
-        <v>1.0288065843621398E-3</v>
+        <v>3.7037037037037038E-3</v>
       </c>
       <c r="B13" s="5">
-        <f>9</f>
-        <v>9</v>
+        <f>9/3.6</f>
+        <v>2.5</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
+      <c r="A14" s="29">
         <f>1200/B14/86400</f>
-        <v>1.3888888888888889E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B14" s="5">
-        <f>10</f>
-        <v>10</v>
+        <f>10/3.6</f>
+        <v>2.7777777777777777</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
+      <c r="A15" s="29">
         <f>1200/B15/86400</f>
-        <v>1.2626262626262627E-3</v>
+        <v>4.5454545454545461E-3</v>
       </c>
       <c r="B15" s="5">
-        <f>11</f>
-        <v>11</v>
+        <f>11/3.6</f>
+        <v>3.0555555555555554</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
+      <c r="A16" s="29">
         <f>1200/B16/86400</f>
-        <v>1.1574074074074073E-3</v>
+        <v>4.1666666666666675E-3</v>
       </c>
       <c r="B16" s="5">
-        <f>12</f>
-        <v>12</v>
+        <f>12/3.6</f>
+        <v>3.333333333333333</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="27"/>
@@ -3202,12 +3202,12 @@
     </row>
     <row r="41" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:12" ht="56" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
@@ -3219,7 +3219,6 @@
     </row>
     <row r="43" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A42:D42"/>
   </mergeCells>
@@ -3263,8 +3262,8 @@
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3353,10 +3352,10 @@
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>5</v>
@@ -3366,73 +3365,73 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30">
+      <c r="A10" s="28">
         <f>800/B10/86400</f>
-        <v>1.4245014245014246E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="B10" s="5">
-        <f>6.5</f>
-        <v>6.5</v>
+        <f>6.5/3.6</f>
+        <v>1.8055555555555556</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30">
+      <c r="A11" s="28">
         <f>800/B11/86400</f>
-        <v>1.1574074074074073E-3</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="B11" s="5">
-        <f>8</f>
-        <v>8</v>
+        <f>8/3.6</f>
+        <v>2.2222222222222223</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30">
+      <c r="A12" s="28">
         <f>800/B12/86400</f>
-        <v>9.7465886939571156E-4</v>
+        <v>3.5087719298245619E-3</v>
       </c>
       <c r="B12" s="5">
-        <f>9.5</f>
-        <v>9.5</v>
+        <f>9.5/3.6</f>
+        <v>2.6388888888888888</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31">
+      <c r="A13" s="29">
         <f>1200/B13/86400</f>
-        <v>1.2626262626262627E-3</v>
+        <v>4.5454545454545461E-3</v>
       </c>
       <c r="B13" s="5">
-        <f>11</f>
-        <v>11</v>
+        <f>11/3.6</f>
+        <v>3.0555555555555554</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
+      <c r="A14" s="29">
         <f>1200/B14/86400</f>
-        <v>1.1111111111111111E-3</v>
+        <v>3.9999999999999992E-3</v>
       </c>
       <c r="B14" s="5">
-        <f>12.5</f>
-        <v>12.5</v>
+        <f>12.5/3.6</f>
+        <v>3.4722222222222223</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
+      <c r="A15" s="29">
         <f t="shared" ref="A15" si="0">1200/B15/86400</f>
-        <v>9.9206349206349201E-4</v>
+        <v>3.5714285714285713E-3</v>
       </c>
       <c r="B15" s="5">
-        <f>14</f>
-        <v>14</v>
+        <f>14/3.6</f>
+        <v>3.8888888888888888</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="27"/>
@@ -3719,12 +3718,12 @@
     </row>
     <row r="40" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:12" ht="56" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -3736,7 +3735,6 @@
     </row>
     <row r="42" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A41:D41"/>
   </mergeCells>
